--- a/Manuscript/Visualization/Supplementary Figures/FigS2/Source_data_FigureS2.xlsx
+++ b/Manuscript/Visualization/Supplementary Figures/FigS2/Source_data_FigureS2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be17a8240fc13af6/桌面/benchmarking/Github/upload_to_github/Visualization/Supplementary Figures/FigS2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be17a8240fc13af6/桌面/benchmarking/Nature_method/form_coauthors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4DA82427541F7ACA7EB8FC280F3BFC6AE8DE12" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE31E7B3-B7C7-4843-A1EC-307BBE926A1C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4DA82427541F7ACA7EB8FC280F3BFC6AE8DE12" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A697A996-D82A-4E22-AC8D-F07DAEC7FF77}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig.S2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
